--- a/data/file-a.xlsx
+++ b/data/file-a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AntoineChalons.AzureAD\Documents\git-clones\ceft\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C63B084-C360-4F9D-8844-2C2282BFD6B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{295DECD5-2FF4-4B98-8E81-9A28112A7AFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3456" yWindow="3456" windowWidth="23040" windowHeight="12120" activeTab="1" xr2:uid="{2ADB9C84-B263-463B-905F-B32DE8571B04}"/>
   </bookViews>
@@ -489,7 +489,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -524,7 +524,7 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
